--- a/biology/Zoologie/Cephalotes_mompox/Cephalotes_mompox.xlsx
+++ b/biology/Zoologie/Cephalotes_mompox/Cephalotes_mompox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes mompox est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes mompox est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie et au Venezuela[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes mompox a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[6] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes mompox a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, mompox, fait référence à la tribu des Monpox qui se rencontre dans le Nord de la Colombie[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, mompox, fait référence à la tribu des Monpox qui se rencontre dans le Nord de la Colombie.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Maria L. de Andrade et Cesare Baroni Urbani, « Diversity and adaptation in the ant genus Cephalotes, past and present (Hymenoptera, Formicidae) », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 271,‎ 29 janvier 1999, p. 1-889 (ISSN 0341-0153, lire en ligne)</t>
         </is>
